--- a/backend/src/main/resources/excel/U7D4.xlsx
+++ b/backend/src/main/resources/excel/U7D4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4909071922302246</v>
+        <v>0.7601131796836853</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4899454414844513</v>
+        <v>0.7608756422996521</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4894983470439911</v>
+        <v>0.7607834935188293</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4892163872718811</v>
+        <v>0.7607359886169434</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4893342256546021</v>
+        <v>0.7606346011161804</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4895070195198059</v>
+        <v>0.7606331706047058</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,208 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.489551454782486</v>
+        <v>0.7606063485145569</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7606242299079895</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7605826854705811</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7606720924377441</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7606345415115356</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7606880068778992</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7606727480888367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7606619596481323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7606514096260071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7606616616249084</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.760665237903595</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7606218457221985</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7606165409088135</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7606710195541382</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7606348991394043</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.760588526725769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7605597376823425</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7606303095817566</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7595213651657104</v>
       </c>
     </row>
   </sheetData>
